--- a/配件清单(不包含电子部分).xlsx
+++ b/配件清单(不包含电子部分).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>名称</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>电极片正极</t>
+  </si>
+  <si>
+    <t>导热垫片10x10x1.5</t>
   </si>
 </sst>
 </file>
@@ -661,9 +664,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1016,13 +1022,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="19.875" customWidth="1"/>
     <col min="3" max="3" width="32.125" customWidth="1"/>
@@ -1096,6 +1102,14 @@
       </c>
       <c r="C8" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/配件清单(不包含电子部分).xlsx
+++ b/配件清单(不包含电子部分).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>名称</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>电极片正极</t>
+  </si>
+  <si>
+    <t>导热垫片10x10x1.5</t>
   </si>
 </sst>
 </file>
@@ -1016,13 +1019,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="19.875" customWidth="1"/>
     <col min="3" max="3" width="32.125" customWidth="1"/>
@@ -1096,6 +1099,14 @@
       </c>
       <c r="C8" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/配件清单(不包含电子部分).xlsx
+++ b/配件清单(不包含电子部分).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>名称</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>热熔铜螺母M2x3x3.2</t>
+  </si>
+  <si>
+    <t>高度3~5mm均可.越长越结实</t>
   </si>
   <si>
     <t>热熔铜螺母M3x3x4.2</t>
@@ -1022,7 +1025,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1063,17 +1066,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1">
         <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -1081,29 +1087,29 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>

--- a/配件清单(不包含电子部分).xlsx
+++ b/配件清单(不包含电子部分).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>名称</t>
   </si>
@@ -52,6 +52,18 @@
   </si>
   <si>
     <t>导热垫片10x10x1.5</t>
+  </si>
+  <si>
+    <t>导热管</t>
+  </si>
+  <si>
+    <t>宽9 长8 厚1(mm)</t>
+  </si>
+  <si>
+    <t>铜片</t>
+  </si>
+  <si>
+    <t>长15 宽 5 厚0.3 (mm)</t>
   </si>
 </sst>
 </file>
@@ -667,9 +679,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1022,10 +1037,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1113,6 +1128,28 @@
       </c>
       <c r="B9" s="1">
         <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/配件清单(不包含电子部分).xlsx
+++ b/配件清单(不包含电子部分).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="23325" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>名称</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>长15 宽 5 厚0.3 (mm)</t>
+  </si>
+  <si>
+    <t>粘贴到mos管上均热</t>
   </si>
 </sst>
 </file>
@@ -1037,16 +1040,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="19.875" customWidth="1"/>
     <col min="3" max="3" width="32.125" customWidth="1"/>
+    <col min="4" max="4" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1134,22 +1138,25 @@
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>2</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>1</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
